--- a/data/pca/factorExposure/factorExposure_2018-06-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01884400750574048</v>
+        <v>0.01990706887235727</v>
       </c>
       <c r="C2">
-        <v>-0.02602556273041021</v>
+        <v>-0.01912558071013399</v>
       </c>
       <c r="D2">
-        <v>0.02264074434759687</v>
+        <v>-0.0222918873138059</v>
       </c>
       <c r="E2">
-        <v>0.01282896820594403</v>
+        <v>-0.01539044355207229</v>
       </c>
       <c r="F2">
-        <v>0.1115523052588624</v>
+        <v>0.006169192506000952</v>
       </c>
       <c r="G2">
-        <v>0.05984121912768851</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.04464381041846186</v>
+      </c>
+      <c r="H2">
+        <v>-0.05374360061084881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09151436402819278</v>
+        <v>0.07728545038207064</v>
       </c>
       <c r="C3">
-        <v>0.01788581730696542</v>
+        <v>0.01185150442278294</v>
       </c>
       <c r="D3">
-        <v>0.07803344782938168</v>
+        <v>-0.02655913139406721</v>
       </c>
       <c r="E3">
-        <v>0.02699570892272437</v>
+        <v>-0.007036781064526844</v>
       </c>
       <c r="F3">
-        <v>0.3968098015386598</v>
+        <v>-0.02514586387752997</v>
       </c>
       <c r="G3">
-        <v>0.1546942745858324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1561278390725869</v>
+      </c>
+      <c r="H3">
+        <v>-0.1740750685960414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04017325985442577</v>
+        <v>0.04302815662914065</v>
       </c>
       <c r="C4">
-        <v>-0.01864933485579298</v>
+        <v>-0.005360720199775034</v>
       </c>
       <c r="D4">
-        <v>-0.01622389978716741</v>
+        <v>-0.04796085667768544</v>
       </c>
       <c r="E4">
-        <v>-0.05008028130775707</v>
+        <v>0.02255922802063046</v>
       </c>
       <c r="F4">
-        <v>0.08171418033379813</v>
+        <v>0.05278192663501736</v>
       </c>
       <c r="G4">
-        <v>0.05904338687690536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03335263264800509</v>
+      </c>
+      <c r="H4">
+        <v>-0.05706636633732858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02114374350503433</v>
+        <v>0.02574003763947761</v>
       </c>
       <c r="C6">
-        <v>-0.01276494411936183</v>
+        <v>-0.00404862409487033</v>
       </c>
       <c r="D6">
-        <v>0.0125813625647214</v>
+        <v>-0.05261358962206075</v>
       </c>
       <c r="E6">
-        <v>-0.01890707590100955</v>
+        <v>0.007442805515980398</v>
       </c>
       <c r="F6">
-        <v>0.02723506313219275</v>
+        <v>0.03096423673422711</v>
       </c>
       <c r="G6">
-        <v>-0.007521075117856549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.009573094216276491</v>
+      </c>
+      <c r="H6">
+        <v>-0.06528718293058748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.0221525001873239</v>
+        <v>0.02053447200373698</v>
       </c>
       <c r="C7">
-        <v>-0.002346270369874463</v>
+        <v>-0.003207697724106746</v>
       </c>
       <c r="D7">
-        <v>0.0122550866796592</v>
+        <v>-0.02708219863910625</v>
       </c>
       <c r="E7">
-        <v>-0.02976772308835497</v>
+        <v>0.04263627715157473</v>
       </c>
       <c r="F7">
-        <v>0.05141399746877122</v>
+        <v>0.005798995642487663</v>
       </c>
       <c r="G7">
-        <v>0.06811055460102217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0188587821678094</v>
+      </c>
+      <c r="H7">
+        <v>-0.03926016706394977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01817461474753207</v>
+        <v>0.004902933083398377</v>
       </c>
       <c r="C8">
-        <v>-0.01404059254114118</v>
+        <v>0.001276599150793037</v>
       </c>
       <c r="D8">
-        <v>0.005442554241745067</v>
+        <v>-0.01107273008314011</v>
       </c>
       <c r="E8">
-        <v>-0.04035025606617106</v>
+        <v>0.007370025221220696</v>
       </c>
       <c r="F8">
-        <v>0.1061635145012752</v>
+        <v>0.01907977510650761</v>
       </c>
       <c r="G8">
-        <v>0.05592267006697774</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.03985262210616105</v>
+      </c>
+      <c r="H8">
+        <v>-0.04539786716765885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.032919268855582</v>
+        <v>0.03471196320984588</v>
       </c>
       <c r="C9">
-        <v>-0.0179518240513422</v>
+        <v>-0.001130521668416609</v>
       </c>
       <c r="D9">
-        <v>-0.006660913400907108</v>
+        <v>-0.0359076459782149</v>
       </c>
       <c r="E9">
-        <v>-0.03711296522124793</v>
+        <v>0.01131162854826629</v>
       </c>
       <c r="F9">
-        <v>0.09348394312029423</v>
+        <v>0.0282157668638899</v>
       </c>
       <c r="G9">
-        <v>0.06116216818342311</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04117746525713921</v>
+      </c>
+      <c r="H9">
+        <v>-0.05777477935510315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03086400324763523</v>
+        <v>0.1045928470460645</v>
       </c>
       <c r="C10">
-        <v>0.05572601782376</v>
+        <v>0.028188866234604</v>
       </c>
       <c r="D10">
-        <v>-0.08561758278248434</v>
+        <v>0.1581298321267864</v>
       </c>
       <c r="E10">
-        <v>0.1135917479886309</v>
+        <v>-0.006283693495490391</v>
       </c>
       <c r="F10">
-        <v>0.05425374092907997</v>
+        <v>-0.04457108163826157</v>
       </c>
       <c r="G10">
-        <v>-0.001173574269018425</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02466351155483758</v>
+      </c>
+      <c r="H10">
+        <v>-0.01261148216510375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03268718028580423</v>
+        <v>0.01959457890846432</v>
       </c>
       <c r="C11">
-        <v>-0.01785692239246892</v>
+        <v>0.007812156048033122</v>
       </c>
       <c r="D11">
-        <v>0.01744408872953989</v>
+        <v>-0.03990970520640999</v>
       </c>
       <c r="E11">
-        <v>-0.02943935749780583</v>
+        <v>-0.000637635175756212</v>
       </c>
       <c r="F11">
-        <v>0.04568083671351256</v>
+        <v>0.01116718022891234</v>
       </c>
       <c r="G11">
-        <v>0.02320575986735529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02042862933710211</v>
+      </c>
+      <c r="H11">
+        <v>-0.0470363743220222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04086631178312983</v>
+        <v>0.02841614619019563</v>
       </c>
       <c r="C12">
-        <v>-0.01934960337981071</v>
+        <v>0.006188932778349221</v>
       </c>
       <c r="D12">
-        <v>0.01146573145577873</v>
+        <v>-0.04030064297347495</v>
       </c>
       <c r="E12">
-        <v>-0.04110633691192642</v>
+        <v>0.008674249882342009</v>
       </c>
       <c r="F12">
-        <v>0.03085979492389491</v>
+        <v>0.01783289335232519</v>
       </c>
       <c r="G12">
-        <v>0.01120470841239116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.006617300674786941</v>
+      </c>
+      <c r="H12">
+        <v>-0.02303424690981742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01309650008189405</v>
+        <v>0.02392187137650251</v>
       </c>
       <c r="C13">
-        <v>-0.02318212063533789</v>
+        <v>-0.0150602622628155</v>
       </c>
       <c r="D13">
-        <v>0.00794282960300623</v>
+        <v>-0.0002140847649624166</v>
       </c>
       <c r="E13">
-        <v>0.005081781824010329</v>
+        <v>-0.01198992599834158</v>
       </c>
       <c r="F13">
-        <v>0.07835483919726972</v>
+        <v>0.01264562114815874</v>
       </c>
       <c r="G13">
-        <v>0.04435352292719012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.04756543098423646</v>
+      </c>
+      <c r="H13">
+        <v>-0.06719621510963222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01618085926236945</v>
+        <v>0.01738795335755228</v>
       </c>
       <c r="C14">
-        <v>-0.005668654117102528</v>
+        <v>-0.0007867094834627613</v>
       </c>
       <c r="D14">
-        <v>-0.003992399180786145</v>
+        <v>-0.005545273591337439</v>
       </c>
       <c r="E14">
-        <v>-0.03445093652146328</v>
+        <v>0.01302810482869609</v>
       </c>
       <c r="F14">
-        <v>0.06095261529365173</v>
+        <v>0.01396878060997425</v>
       </c>
       <c r="G14">
-        <v>0.07414519654389694</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03966432023273454</v>
+      </c>
+      <c r="H14">
+        <v>-0.01245810701172536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02525362666602743</v>
+        <v>0.02163627913945253</v>
       </c>
       <c r="C16">
-        <v>-0.02111359442947746</v>
+        <v>0.008494336276844502</v>
       </c>
       <c r="D16">
-        <v>0.01587557289099501</v>
+        <v>-0.0346407185462179</v>
       </c>
       <c r="E16">
-        <v>-0.02326526258614871</v>
+        <v>0.002870342889513643</v>
       </c>
       <c r="F16">
-        <v>0.05088070379662235</v>
+        <v>0.01643752436983901</v>
       </c>
       <c r="G16">
-        <v>0.02573814916256191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.01903283015557326</v>
+      </c>
+      <c r="H16">
+        <v>-0.03836142485338984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04712506735728042</v>
+        <v>0.03365410259614015</v>
       </c>
       <c r="C19">
-        <v>-0.02135449828927423</v>
+        <v>-0.0004855042019249752</v>
       </c>
       <c r="D19">
-        <v>0.01219805352122766</v>
+        <v>-0.02189540399529082</v>
       </c>
       <c r="E19">
-        <v>-0.03635844331682619</v>
+        <v>0.005829411784741467</v>
       </c>
       <c r="F19">
-        <v>0.107025133760984</v>
+        <v>0.02280303506406739</v>
       </c>
       <c r="G19">
-        <v>0.02741266308024645</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.04998486112018197</v>
+      </c>
+      <c r="H19">
+        <v>-0.07440983719788201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0007270976193752244</v>
+        <v>0.009044752325278585</v>
       </c>
       <c r="C20">
-        <v>-0.01167100805705796</v>
+        <v>-0.006856545763485654</v>
       </c>
       <c r="D20">
-        <v>-0.003549425103374703</v>
+        <v>-0.008289807092180215</v>
       </c>
       <c r="E20">
-        <v>-0.03110847049664712</v>
+        <v>0.004106675787410221</v>
       </c>
       <c r="F20">
-        <v>0.07349874173729198</v>
+        <v>0.01449243653426484</v>
       </c>
       <c r="G20">
-        <v>0.07245971241792887</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04431045910912512</v>
+      </c>
+      <c r="H20">
+        <v>-0.02190500629151326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.003344231592214264</v>
+        <v>0.01500735216651816</v>
       </c>
       <c r="C21">
-        <v>0.01411849028895575</v>
+        <v>-0.008407814658969909</v>
       </c>
       <c r="D21">
-        <v>0.01206289798937566</v>
+        <v>-0.008881353162691131</v>
       </c>
       <c r="E21">
-        <v>-0.02007764791579776</v>
+        <v>0.01789262762819622</v>
       </c>
       <c r="F21">
-        <v>0.05302162498005226</v>
+        <v>0.00639069026855434</v>
       </c>
       <c r="G21">
-        <v>0.02613847064183386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04149730867741313</v>
+      </c>
+      <c r="H21">
+        <v>-0.04824090106761062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02966217305873545</v>
+        <v>0.01823371482388481</v>
       </c>
       <c r="C24">
-        <v>-0.02232307022857889</v>
+        <v>0.002534341642288924</v>
       </c>
       <c r="D24">
-        <v>0.006303440554206777</v>
+        <v>-0.03574041754087268</v>
       </c>
       <c r="E24">
-        <v>-0.008933496847918701</v>
+        <v>0.0003777252897266894</v>
       </c>
       <c r="F24">
-        <v>0.04453503748892945</v>
+        <v>0.01117887199726387</v>
       </c>
       <c r="G24">
-        <v>0.02356328649276484</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01236471545706274</v>
+      </c>
+      <c r="H24">
+        <v>-0.04569172613032385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02962198843244623</v>
+        <v>0.02893855676703361</v>
       </c>
       <c r="C25">
-        <v>-0.01181395400751293</v>
+        <v>0.0007162499227211006</v>
       </c>
       <c r="D25">
-        <v>0.0165612562455096</v>
+        <v>-0.03485716284717855</v>
       </c>
       <c r="E25">
-        <v>-0.03080248127473155</v>
+        <v>0.004939450616605372</v>
       </c>
       <c r="F25">
-        <v>0.04986324599728239</v>
+        <v>0.01749319691637725</v>
       </c>
       <c r="G25">
-        <v>0.008775809176523918</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01816032453190038</v>
+      </c>
+      <c r="H25">
+        <v>-0.0465306362603566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01900193730171796</v>
+        <v>0.0185569513647541</v>
       </c>
       <c r="C26">
-        <v>-0.005992834438697088</v>
+        <v>-0.01795970875257382</v>
       </c>
       <c r="D26">
-        <v>0.03021401463490922</v>
+        <v>-0.001678982144716652</v>
       </c>
       <c r="E26">
-        <v>-0.004714678893027545</v>
+        <v>-0.001978680518012118</v>
       </c>
       <c r="F26">
-        <v>0.06778022716822787</v>
+        <v>-0.0007957367477920829</v>
       </c>
       <c r="G26">
-        <v>0.04774322760022822</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.0301152815029193</v>
+      </c>
+      <c r="H26">
+        <v>-0.0217121430896207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.06158518608941831</v>
+        <v>0.02394969986346538</v>
       </c>
       <c r="C27">
-        <v>-0.025752604436686</v>
+        <v>0.009042617769268145</v>
       </c>
       <c r="D27">
-        <v>-0.02556449438127851</v>
+        <v>-0.01522310564600454</v>
       </c>
       <c r="E27">
-        <v>-0.03796618977472695</v>
+        <v>0.005631549068071805</v>
       </c>
       <c r="F27">
-        <v>0.05946840929947585</v>
+        <v>0.01648591904946465</v>
       </c>
       <c r="G27">
-        <v>0.04343145558450871</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01691866890448494</v>
+      </c>
+      <c r="H27">
+        <v>-0.004921452822171147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04734397355253062</v>
+        <v>0.1533111965259566</v>
       </c>
       <c r="C28">
-        <v>0.06202304665421447</v>
+        <v>0.02815380457093394</v>
       </c>
       <c r="D28">
-        <v>-0.1236773196792171</v>
+        <v>0.2224521683665651</v>
       </c>
       <c r="E28">
-        <v>0.1522363419399329</v>
+        <v>-0.003260635366690872</v>
       </c>
       <c r="F28">
-        <v>0.0518570069726923</v>
+        <v>-0.04585486376444549</v>
       </c>
       <c r="G28">
-        <v>0.02495183201300884</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01167391310696954</v>
+      </c>
+      <c r="H28">
+        <v>0.004678675101053449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02264825383318026</v>
+        <v>0.02161214312947475</v>
       </c>
       <c r="C29">
-        <v>-0.004384847308794642</v>
+        <v>0.001029838019123763</v>
       </c>
       <c r="D29">
-        <v>-0.00406193287570025</v>
+        <v>-0.006565038405868548</v>
       </c>
       <c r="E29">
-        <v>-0.04818493141743866</v>
+        <v>0.01273030280492181</v>
       </c>
       <c r="F29">
-        <v>0.05228514914711287</v>
+        <v>0.01554455784230408</v>
       </c>
       <c r="G29">
-        <v>0.06744365263864179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.0378150590075108</v>
+      </c>
+      <c r="H29">
+        <v>-0.006087791918015373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.08883991967848497</v>
+        <v>0.05044746057959122</v>
       </c>
       <c r="C30">
-        <v>-0.05876324229903847</v>
+        <v>-0.005283424289935335</v>
       </c>
       <c r="D30">
-        <v>0.008541366884274881</v>
+        <v>-0.07159826645152408</v>
       </c>
       <c r="E30">
-        <v>-0.07031286568994902</v>
+        <v>-0.02845634850679396</v>
       </c>
       <c r="F30">
-        <v>0.09367983798170418</v>
+        <v>0.0513500833246222</v>
       </c>
       <c r="G30">
-        <v>0.05079435502161549</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.04585007045942862</v>
+      </c>
+      <c r="H30">
+        <v>-0.0708784068596804</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05911436351295212</v>
+        <v>0.0528694352798823</v>
       </c>
       <c r="C31">
-        <v>-0.02951430231539593</v>
+        <v>0.01353346952568897</v>
       </c>
       <c r="D31">
-        <v>0.0249101392046354</v>
+        <v>-0.02374432343647073</v>
       </c>
       <c r="E31">
-        <v>0.0006460508553325049</v>
+        <v>-0.005967594209158007</v>
       </c>
       <c r="F31">
-        <v>0.04225483721865796</v>
+        <v>0.009193706985743583</v>
       </c>
       <c r="G31">
-        <v>0.07797157927529053</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01442341657470423</v>
+      </c>
+      <c r="H31">
+        <v>-0.009438847287821505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01962731249047227</v>
+        <v>0.01245591056585453</v>
       </c>
       <c r="C32">
-        <v>-0.01453561208523168</v>
+        <v>0.01386268616864846</v>
       </c>
       <c r="D32">
-        <v>0.01703312917126135</v>
+        <v>-0.00646918065311804</v>
       </c>
       <c r="E32">
-        <v>-0.07947779328411442</v>
+        <v>0.03111066886618131</v>
       </c>
       <c r="F32">
-        <v>0.08177994334896871</v>
+        <v>0.03971137966618561</v>
       </c>
       <c r="G32">
-        <v>0.0583204672110082</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02803598506453464</v>
+      </c>
+      <c r="H32">
+        <v>-0.06618887074554414</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04592404165337428</v>
+        <v>0.03759276566537104</v>
       </c>
       <c r="C33">
-        <v>-0.01855916292516185</v>
+        <v>0.0007175968057945631</v>
       </c>
       <c r="D33">
-        <v>0.04610036518753454</v>
+        <v>-0.03241116947784161</v>
       </c>
       <c r="E33">
-        <v>-0.02692952897083713</v>
+        <v>-0.02371878706831021</v>
       </c>
       <c r="F33">
-        <v>0.0892191414167899</v>
+        <v>0.003171489922215084</v>
       </c>
       <c r="G33">
-        <v>0.06825395977043874</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04062817197419633</v>
+      </c>
+      <c r="H33">
+        <v>-0.04426520315674473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02895918239135337</v>
+        <v>0.02491005572104999</v>
       </c>
       <c r="C34">
-        <v>-0.02161713072806558</v>
+        <v>0.01653093505839776</v>
       </c>
       <c r="D34">
-        <v>0.01169336914311669</v>
+        <v>-0.03603392406953124</v>
       </c>
       <c r="E34">
-        <v>-0.02954828338757217</v>
+        <v>0.009353024618330331</v>
       </c>
       <c r="F34">
-        <v>0.05544938698226445</v>
+        <v>0.01833267638980882</v>
       </c>
       <c r="G34">
-        <v>0.01377843155731589</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01528115552866371</v>
+      </c>
+      <c r="H34">
+        <v>-0.03972758898311487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01440271998486849</v>
+        <v>0.02035093499124419</v>
       </c>
       <c r="C36">
-        <v>-0.001931958139049114</v>
+        <v>-0.004260968953444112</v>
       </c>
       <c r="D36">
-        <v>0.0004499856097355034</v>
+        <v>-0.001105730331857145</v>
       </c>
       <c r="E36">
-        <v>-0.02771872781866221</v>
+        <v>0.006956257512528772</v>
       </c>
       <c r="F36">
-        <v>0.03495250650460564</v>
+        <v>0.004678822237807156</v>
       </c>
       <c r="G36">
-        <v>0.03837030501832959</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01706705463698691</v>
+      </c>
+      <c r="H36">
+        <v>-0.01272047641511945</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>4.082866907731696e-05</v>
+        <v>0.02310974013152914</v>
       </c>
       <c r="C38">
-        <v>0.01278263749068498</v>
+        <v>0.01606979309469824</v>
       </c>
       <c r="D38">
-        <v>0.01623791711429136</v>
+        <v>-0.006739317170368648</v>
       </c>
       <c r="E38">
-        <v>0.02479309177963084</v>
+        <v>-0.001722554298019691</v>
       </c>
       <c r="F38">
-        <v>0.03956314852442045</v>
+        <v>0.007140055657934433</v>
       </c>
       <c r="G38">
-        <v>0.01864360224026853</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01616000344904683</v>
+      </c>
+      <c r="H38">
+        <v>-0.03670069833195352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03710176908700262</v>
+        <v>0.01597052906483489</v>
       </c>
       <c r="C39">
-        <v>-0.04001459240717176</v>
+        <v>0.000361488302147933</v>
       </c>
       <c r="D39">
-        <v>0.02272283074504671</v>
+        <v>-0.07728215686640527</v>
       </c>
       <c r="E39">
-        <v>-0.03353468093187131</v>
+        <v>-0.002078780730895702</v>
       </c>
       <c r="F39">
-        <v>0.06904283667881268</v>
+        <v>0.02120429916720318</v>
       </c>
       <c r="G39">
-        <v>0.02838836821162418</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03343918983947109</v>
+      </c>
+      <c r="H39">
+        <v>-0.07404643583689637</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03380577003052569</v>
+        <v>0.02954332083495146</v>
       </c>
       <c r="C40">
-        <v>-0.07122865693141595</v>
+        <v>0.0003255949074564861</v>
       </c>
       <c r="D40">
-        <v>0.01916928463011431</v>
+        <v>-0.0219338043056331</v>
       </c>
       <c r="E40">
-        <v>0.007843840577503119</v>
+        <v>-0.02396770545774099</v>
       </c>
       <c r="F40">
-        <v>0.07657080904911466</v>
+        <v>0.03109210906565913</v>
       </c>
       <c r="G40">
-        <v>0.04795275465211366</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.0181675728746923</v>
+      </c>
+      <c r="H40">
+        <v>-0.06721681874866985</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001084084564385875</v>
+        <v>0.01197077138838233</v>
       </c>
       <c r="C41">
-        <v>0.001376820188498171</v>
+        <v>-0.0004426862327160604</v>
       </c>
       <c r="D41">
-        <v>0.008671564397366074</v>
+        <v>0.01363923139149711</v>
       </c>
       <c r="E41">
-        <v>-0.006204917176105727</v>
+        <v>-0.002744659180325173</v>
       </c>
       <c r="F41">
-        <v>0.008277718805164693</v>
+        <v>-0.002262790684040845</v>
       </c>
       <c r="G41">
-        <v>0.05819926217483528</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.005123756659212208</v>
+      </c>
+      <c r="H41">
+        <v>0.007147241562377526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3693212031057617</v>
+        <v>0.1918419209718536</v>
       </c>
       <c r="C42">
-        <v>0.5458382893610364</v>
+        <v>-0.07345228254090076</v>
       </c>
       <c r="D42">
-        <v>0.6234357985866107</v>
+        <v>-0.3299568735007448</v>
       </c>
       <c r="E42">
-        <v>0.2466888258199129</v>
+        <v>-0.1953969250178209</v>
       </c>
       <c r="F42">
-        <v>-0.2478067039841744</v>
+        <v>-0.8733454384250751</v>
       </c>
       <c r="G42">
-        <v>0.1291590669363032</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.16124219149757</v>
+      </c>
+      <c r="H42">
+        <v>0.05024110030088198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00481617976645416</v>
+        <v>0.01297086957045314</v>
       </c>
       <c r="C43">
-        <v>0.005861882110860347</v>
+        <v>-0.001270251493279137</v>
       </c>
       <c r="D43">
-        <v>0.01677415066190469</v>
+        <v>0.01368248066069906</v>
       </c>
       <c r="E43">
-        <v>-0.006017176843655089</v>
+        <v>-0.005562581375789034</v>
       </c>
       <c r="F43">
-        <v>0.02324536620780045</v>
+        <v>-0.008484763509875088</v>
       </c>
       <c r="G43">
-        <v>0.05652245923189073</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.00498973595050012</v>
+      </c>
+      <c r="H43">
+        <v>-0.003668448221906216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01257596644256356</v>
+        <v>0.01327952472513696</v>
       </c>
       <c r="C44">
-        <v>0.004517740423692102</v>
+        <v>0.001020895001663384</v>
       </c>
       <c r="D44">
-        <v>0.0212029167884068</v>
+        <v>-0.02419962220935526</v>
       </c>
       <c r="E44">
-        <v>-0.01145140558630194</v>
+        <v>0.005453507996842031</v>
       </c>
       <c r="F44">
-        <v>0.1138176937874418</v>
+        <v>-0.003892739092616566</v>
       </c>
       <c r="G44">
-        <v>0.09247876378912102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0326113448682657</v>
+      </c>
+      <c r="H44">
+        <v>-0.06228678928105476</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02100132080410839</v>
+        <v>0.01853499392608429</v>
       </c>
       <c r="C46">
-        <v>-0.01183819242632468</v>
+        <v>-0.004080070583828362</v>
       </c>
       <c r="D46">
-        <v>0.02398324498140377</v>
+        <v>-0.01151514225352273</v>
       </c>
       <c r="E46">
-        <v>-0.04102682539002873</v>
+        <v>0.000213472165114885</v>
       </c>
       <c r="F46">
-        <v>0.06853991101108305</v>
+        <v>0.0140353801010681</v>
       </c>
       <c r="G46">
-        <v>0.07254728467699954</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0443146854955855</v>
+      </c>
+      <c r="H46">
+        <v>-0.01753956648230941</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09512121046660643</v>
+        <v>0.07372244952314329</v>
       </c>
       <c r="C47">
-        <v>-0.03193560776124277</v>
+        <v>0.02918618887586894</v>
       </c>
       <c r="D47">
-        <v>0.006772786422183185</v>
+        <v>-0.04571249823242614</v>
       </c>
       <c r="E47">
-        <v>-0.02364142353980972</v>
+        <v>-0.0003907408623758166</v>
       </c>
       <c r="F47">
-        <v>0.02684425438314832</v>
+        <v>0.02040920451993077</v>
       </c>
       <c r="G47">
-        <v>0.1003974694350282</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.009040089645240541</v>
+      </c>
+      <c r="H47">
+        <v>0.02124620709522529</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01588666443530161</v>
+        <v>0.02096644843976455</v>
       </c>
       <c r="C48">
-        <v>-0.005487812899064971</v>
+        <v>0.005982215138232458</v>
       </c>
       <c r="D48">
-        <v>0.01499818395188915</v>
+        <v>-0.006691678495323224</v>
       </c>
       <c r="E48">
-        <v>-0.01883509875552922</v>
+        <v>0.000666830437111587</v>
       </c>
       <c r="F48">
-        <v>0.05257581287306186</v>
+        <v>0.007890648653733621</v>
       </c>
       <c r="G48">
-        <v>0.03125415648012075</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02280145501281043</v>
+      </c>
+      <c r="H48">
+        <v>-0.01986911267992059</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08577033051858315</v>
+        <v>0.07163114974429928</v>
       </c>
       <c r="C50">
-        <v>-0.03788017472886778</v>
+        <v>0.02650100416970125</v>
       </c>
       <c r="D50">
-        <v>0.02727553624224598</v>
+        <v>-0.04565714065406797</v>
       </c>
       <c r="E50">
-        <v>-0.02793411392570468</v>
+        <v>0.01411378481156377</v>
       </c>
       <c r="F50">
-        <v>0.05349793513183499</v>
+        <v>0.01833462484453737</v>
       </c>
       <c r="G50">
-        <v>0.05036570689794956</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01138888655335783</v>
+      </c>
+      <c r="H50">
+        <v>-0.001039380198907741</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01778204636164531</v>
+        <v>0.01777620894964861</v>
       </c>
       <c r="C51">
-        <v>0.01112279098014484</v>
+        <v>-0.001992414383571688</v>
       </c>
       <c r="D51">
-        <v>0.005786932006086203</v>
+        <v>0.006553721417473022</v>
       </c>
       <c r="E51">
-        <v>0.009413114996748056</v>
+        <v>0.004082874491084422</v>
       </c>
       <c r="F51">
-        <v>0.1137822689805675</v>
+        <v>-0.009689952654038813</v>
       </c>
       <c r="G51">
-        <v>0.05977083652740176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04137022703579604</v>
+      </c>
+      <c r="H51">
+        <v>-0.05779318249464459</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.101196425362039</v>
+        <v>0.09040164451173902</v>
       </c>
       <c r="C53">
-        <v>-0.05150427206857022</v>
+        <v>0.03605055205146954</v>
       </c>
       <c r="D53">
-        <v>0.01408430272986371</v>
+        <v>-0.08140304655584388</v>
       </c>
       <c r="E53">
-        <v>-0.04260716202330548</v>
+        <v>0.004508853514292097</v>
       </c>
       <c r="F53">
-        <v>-0.04168168305443393</v>
+        <v>0.04653678651692662</v>
       </c>
       <c r="G53">
-        <v>0.03276108729816188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04468283534111171</v>
+      </c>
+      <c r="H53">
+        <v>0.04743683941923612</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02179953512424463</v>
+        <v>0.02612206899247198</v>
       </c>
       <c r="C54">
-        <v>-0.009911798229227328</v>
+        <v>0.01096949798670707</v>
       </c>
       <c r="D54">
-        <v>-0.009654333113978595</v>
+        <v>0.01414522952862408</v>
       </c>
       <c r="E54">
-        <v>-0.03507963505682356</v>
+        <v>0.006597333902030879</v>
       </c>
       <c r="F54">
-        <v>0.05370519223353637</v>
+        <v>0.006356170680864902</v>
       </c>
       <c r="G54">
-        <v>0.08325216738734201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0378167884981012</v>
+      </c>
+      <c r="H54">
+        <v>-0.0001246700416604732</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1063683710126312</v>
+        <v>0.07555470482970705</v>
       </c>
       <c r="C55">
-        <v>-0.02686597880935087</v>
+        <v>0.03133515976192257</v>
       </c>
       <c r="D55">
-        <v>-0.003753162051291766</v>
+        <v>-0.07798749419551156</v>
       </c>
       <c r="E55">
-        <v>-0.06893883250437507</v>
+        <v>0.01198114110481531</v>
       </c>
       <c r="F55">
-        <v>-0.02826086506024043</v>
+        <v>0.03758251949656183</v>
       </c>
       <c r="G55">
-        <v>0.07600124428698159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.0179966065500221</v>
+      </c>
+      <c r="H55">
+        <v>0.0533392685147241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1459793936773129</v>
+        <v>0.1264823669256091</v>
       </c>
       <c r="C56">
-        <v>-0.08469102137572776</v>
+        <v>0.05592252586042973</v>
       </c>
       <c r="D56">
-        <v>-0.0241869793398974</v>
+        <v>-0.103050475582909</v>
       </c>
       <c r="E56">
-        <v>-0.06438369405704024</v>
+        <v>0.006333589105193154</v>
       </c>
       <c r="F56">
-        <v>-0.0914353714732808</v>
+        <v>0.07488823238866912</v>
       </c>
       <c r="G56">
-        <v>-0.03420092450871275</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07452915258615884</v>
+      </c>
+      <c r="H56">
+        <v>0.05984377150971914</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04709736657780023</v>
+        <v>0.03940115625946626</v>
       </c>
       <c r="C57">
-        <v>-0.004819948561492905</v>
+        <v>-0.01027551412003768</v>
       </c>
       <c r="D57">
-        <v>0.01298212146230115</v>
+        <v>-0.03102446354700193</v>
       </c>
       <c r="E57">
-        <v>0.01678609740348432</v>
+        <v>-0.005320403774400079</v>
       </c>
       <c r="F57">
-        <v>0.07744114168350405</v>
+        <v>0.01725099002204407</v>
       </c>
       <c r="G57">
-        <v>0.06039786567994673</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05295639393688129</v>
+      </c>
+      <c r="H57">
+        <v>-0.04555973780404097</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2045519129608465</v>
+        <v>0.1458207898404995</v>
       </c>
       <c r="C58">
-        <v>-0.08794815358363187</v>
+        <v>0.04308297892898579</v>
       </c>
       <c r="D58">
-        <v>0.1094859521860732</v>
+        <v>-0.1535786939401512</v>
       </c>
       <c r="E58">
-        <v>-0.09448430089798196</v>
+        <v>-0.1757504451417142</v>
       </c>
       <c r="F58">
-        <v>0.371885312363508</v>
+        <v>-0.02448433252963403</v>
       </c>
       <c r="G58">
-        <v>0.09959445642970641</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8633211206388313</v>
+      </c>
+      <c r="H58">
+        <v>0.3060518072385197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.04929324950140739</v>
+        <v>0.1617648126776624</v>
       </c>
       <c r="C59">
-        <v>0.01858429317454903</v>
+        <v>0.03650946837553838</v>
       </c>
       <c r="D59">
-        <v>-0.1146680218193217</v>
+        <v>0.2204000287656712</v>
       </c>
       <c r="E59">
-        <v>0.1446407053057384</v>
+        <v>-0.02197040148052994</v>
       </c>
       <c r="F59">
-        <v>0.07060705387698767</v>
+        <v>-0.02535915867866698</v>
       </c>
       <c r="G59">
-        <v>-0.003057017970643959</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0151831553496434</v>
+      </c>
+      <c r="H59">
+        <v>-0.02615545495519325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1563072244602633</v>
+        <v>0.1744145419548714</v>
       </c>
       <c r="C60">
-        <v>-0.04791705538033254</v>
+        <v>0.0352663614309522</v>
       </c>
       <c r="D60">
-        <v>0.05673909655563392</v>
+        <v>-0.02198720898462314</v>
       </c>
       <c r="E60">
-        <v>0.07744595451224008</v>
+        <v>-0.04764617279421159</v>
       </c>
       <c r="F60">
-        <v>0.1591987839681615</v>
+        <v>0.03494481572864172</v>
       </c>
       <c r="G60">
-        <v>-0.3155684010514946</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.01609023305895335</v>
+      </c>
+      <c r="H60">
+        <v>-0.388237469069993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01938206226378201</v>
+        <v>0.0197683047075367</v>
       </c>
       <c r="C61">
-        <v>-0.009542443014820365</v>
+        <v>0.005931843897284318</v>
       </c>
       <c r="D61">
-        <v>0.01543695343181357</v>
+        <v>-0.04423605275645136</v>
       </c>
       <c r="E61">
-        <v>-0.01750475804151782</v>
+        <v>0.004785913968090989</v>
       </c>
       <c r="F61">
-        <v>0.03841683448827215</v>
+        <v>0.01922746533163204</v>
       </c>
       <c r="G61">
-        <v>0.01710223243143885</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01768089051188064</v>
+      </c>
+      <c r="H61">
+        <v>-0.05384999452784641</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0175454742879683</v>
+        <v>0.01229972425741022</v>
       </c>
       <c r="C63">
-        <v>-0.004798458154354436</v>
+        <v>-0.002566128999942233</v>
       </c>
       <c r="D63">
-        <v>0.01815333574121411</v>
+        <v>-0.01872324261010902</v>
       </c>
       <c r="E63">
-        <v>-0.03401821737758642</v>
+        <v>0.005138120899681703</v>
       </c>
       <c r="F63">
-        <v>0.02161830515129774</v>
+        <v>0.0139510516891165</v>
       </c>
       <c r="G63">
-        <v>0.06831842094137225</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01571774153742502</v>
+      </c>
+      <c r="H63">
+        <v>-0.008257022603895225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03242826461998019</v>
+        <v>0.03803018724244717</v>
       </c>
       <c r="C64">
-        <v>-0.002654715906419948</v>
+        <v>0.008817917581614982</v>
       </c>
       <c r="D64">
-        <v>-0.008527104151185788</v>
+        <v>-0.03651620480240445</v>
       </c>
       <c r="E64">
-        <v>-0.06175095092993523</v>
+        <v>0.01197237712062591</v>
       </c>
       <c r="F64">
-        <v>0.0238798590626499</v>
+        <v>0.005087905027568015</v>
       </c>
       <c r="G64">
-        <v>0.05857957134818336</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.001365287631054313</v>
+      </c>
+      <c r="H64">
+        <v>-0.0358412555933811</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02219367158549197</v>
+        <v>0.02792467459571463</v>
       </c>
       <c r="C65">
-        <v>-0.01471179364807474</v>
+        <v>-0.004997580897773563</v>
       </c>
       <c r="D65">
-        <v>0.01416619335579488</v>
+        <v>-0.06136932731733838</v>
       </c>
       <c r="E65">
-        <v>-0.02064397993664218</v>
+        <v>0.01034608103976339</v>
       </c>
       <c r="F65">
-        <v>0.02062019447744266</v>
+        <v>0.03401698198369725</v>
       </c>
       <c r="G65">
-        <v>-0.01314303289565324</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.003991164125675239</v>
+      </c>
+      <c r="H65">
+        <v>-0.06690904372455223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03483026424636784</v>
+        <v>0.02167430563846205</v>
       </c>
       <c r="C66">
-        <v>-0.04432501410987126</v>
+        <v>0.005052821616988971</v>
       </c>
       <c r="D66">
-        <v>0.02661155694534857</v>
+        <v>-0.09205592551821397</v>
       </c>
       <c r="E66">
-        <v>-0.03380748957151707</v>
+        <v>-0.003294501327752274</v>
       </c>
       <c r="F66">
-        <v>0.05539073253505739</v>
+        <v>0.0397188457396653</v>
       </c>
       <c r="G66">
-        <v>0.01223234171819846</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02515103059759245</v>
+      </c>
+      <c r="H66">
+        <v>-0.07600381230125866</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.011268255902323</v>
+        <v>0.04347340600128065</v>
       </c>
       <c r="C67">
-        <v>0.00269722171087969</v>
+        <v>0.01952576454123973</v>
       </c>
       <c r="D67">
-        <v>0.01215368970643693</v>
+        <v>-0.004473132330809418</v>
       </c>
       <c r="E67">
-        <v>0.03914966534361349</v>
+        <v>-0.005647767363088983</v>
       </c>
       <c r="F67">
-        <v>0.02414240812365602</v>
+        <v>0.01574144522428203</v>
       </c>
       <c r="G67">
-        <v>0.004178427311390574</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0009252784046418714</v>
+      </c>
+      <c r="H67">
+        <v>-0.0352398456082191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06464830612198191</v>
+        <v>0.1604558209472644</v>
       </c>
       <c r="C68">
-        <v>0.03950876089189478</v>
+        <v>0.01568734657165756</v>
       </c>
       <c r="D68">
-        <v>-0.1429557590370009</v>
+        <v>0.223872238572481</v>
       </c>
       <c r="E68">
-        <v>0.140886117180622</v>
+        <v>-0.01634121864770305</v>
       </c>
       <c r="F68">
-        <v>0.06011064141578853</v>
+        <v>-0.05084013411509735</v>
       </c>
       <c r="G68">
-        <v>-0.04066212610755143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02964302697226029</v>
+      </c>
+      <c r="H68">
+        <v>0.03787599250850823</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07130929247125398</v>
+        <v>0.05825702685499066</v>
       </c>
       <c r="C69">
-        <v>-0.03756236981202595</v>
+        <v>0.02828248270074143</v>
       </c>
       <c r="D69">
-        <v>-0.0006800497294112336</v>
+        <v>-0.0423727015548265</v>
       </c>
       <c r="E69">
-        <v>-0.005045960150568097</v>
+        <v>-0.001978020201612838</v>
       </c>
       <c r="F69">
-        <v>0.02001445796738226</v>
+        <v>0.03064436077402898</v>
       </c>
       <c r="G69">
-        <v>0.09331743426652155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01660589022118809</v>
+      </c>
+      <c r="H69">
+        <v>-0.003497947393332148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07203771317291019</v>
+        <v>0.1498260172745586</v>
       </c>
       <c r="C71">
-        <v>0.04946889269367487</v>
+        <v>0.02339596007563172</v>
       </c>
       <c r="D71">
-        <v>-0.1286111403582023</v>
+        <v>0.1954208708779961</v>
       </c>
       <c r="E71">
-        <v>0.1991155112675248</v>
+        <v>-0.02168316987040962</v>
       </c>
       <c r="F71">
-        <v>0.06184164385873188</v>
+        <v>-0.05613211819560694</v>
       </c>
       <c r="G71">
-        <v>0.01616479992354397</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.0236892672864837</v>
+      </c>
+      <c r="H71">
+        <v>0.0215067174384635</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1160312797684608</v>
+        <v>0.08156181463377461</v>
       </c>
       <c r="C72">
-        <v>-0.08790241492970395</v>
+        <v>0.039066421950793</v>
       </c>
       <c r="D72">
-        <v>-0.01483616158479873</v>
+        <v>-0.08051157673832396</v>
       </c>
       <c r="E72">
-        <v>-0.01877728667696062</v>
+        <v>-0.01000233624853446</v>
       </c>
       <c r="F72">
-        <v>0.1329798478336466</v>
+        <v>0.08043887546980145</v>
       </c>
       <c r="G72">
-        <v>-0.09563147209273355</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.042606860457231</v>
+      </c>
+      <c r="H72">
+        <v>-0.1716900900765219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2329305144527038</v>
+        <v>0.2318305717814322</v>
       </c>
       <c r="C73">
-        <v>-0.05014480387848432</v>
+        <v>0.04378947497791639</v>
       </c>
       <c r="D73">
-        <v>0.0612034999332384</v>
+        <v>-0.07858916528732646</v>
       </c>
       <c r="E73">
-        <v>0.1885841268687973</v>
+        <v>-0.08176232052674957</v>
       </c>
       <c r="F73">
-        <v>0.2621777560452228</v>
+        <v>0.03452254842517952</v>
       </c>
       <c r="G73">
-        <v>-0.4620241301951878</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.02083378851054198</v>
+      </c>
+      <c r="H73">
+        <v>-0.5147914911159437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1451464940712788</v>
+        <v>0.1176704367648276</v>
       </c>
       <c r="C74">
-        <v>-0.03265266212498721</v>
+        <v>0.05194767431608883</v>
       </c>
       <c r="D74">
-        <v>-0.01413056166690545</v>
+        <v>-0.108343151417195</v>
       </c>
       <c r="E74">
-        <v>-0.03475451885008413</v>
+        <v>0.005911032066013757</v>
       </c>
       <c r="F74">
-        <v>-0.06052271036134318</v>
+        <v>0.05441186588467129</v>
       </c>
       <c r="G74">
-        <v>-0.009511000201909366</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05852919103777394</v>
+      </c>
+      <c r="H74">
+        <v>0.03534563077942697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2393115089210593</v>
+        <v>0.2287622678315574</v>
       </c>
       <c r="C75">
-        <v>-0.1405772121913823</v>
+        <v>0.1023153453408198</v>
       </c>
       <c r="D75">
-        <v>-0.04470275943827177</v>
+        <v>-0.1709383254456213</v>
       </c>
       <c r="E75">
-        <v>-0.08538389477179513</v>
+        <v>-0.008290407955577016</v>
       </c>
       <c r="F75">
-        <v>-0.1140485917500941</v>
+        <v>0.1364342619637683</v>
       </c>
       <c r="G75">
-        <v>0.0003210893572101624</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.117236367527357</v>
+      </c>
+      <c r="H75">
+        <v>0.1316649993004914</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2867896908553277</v>
+        <v>0.2021559824088238</v>
       </c>
       <c r="C76">
-        <v>-0.1212158761452908</v>
+        <v>0.09517426698769063</v>
       </c>
       <c r="D76">
-        <v>-0.1046519955309161</v>
+        <v>-0.1621047960822016</v>
       </c>
       <c r="E76">
-        <v>-0.1231264260310241</v>
+        <v>0.04159868503856903</v>
       </c>
       <c r="F76">
-        <v>-0.1511714743696892</v>
+        <v>0.1334807414659529</v>
       </c>
       <c r="G76">
-        <v>-0.00357672339058915</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1187966120976603</v>
+      </c>
+      <c r="H76">
+        <v>0.1350402214914455</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1280179374797072</v>
+        <v>0.06520276348300931</v>
       </c>
       <c r="C77">
-        <v>0.01444011132143981</v>
+        <v>0.007424907160464868</v>
       </c>
       <c r="D77">
-        <v>0.08695648882189316</v>
+        <v>-0.06384120070378976</v>
       </c>
       <c r="E77">
-        <v>-0.05136542188567459</v>
+        <v>-0.01040815795269491</v>
       </c>
       <c r="F77">
-        <v>0.1881007064101132</v>
+        <v>-0.02758609361839044</v>
       </c>
       <c r="G77">
-        <v>0.178325015802651</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.09208057073144285</v>
+      </c>
+      <c r="H77">
+        <v>-0.01796544318315672</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07331828544855765</v>
+        <v>0.04021512364597936</v>
       </c>
       <c r="C78">
-        <v>-0.02736051487444828</v>
+        <v>0.01059119243183252</v>
       </c>
       <c r="D78">
-        <v>0.03326236005443617</v>
+        <v>-0.05275620500519523</v>
       </c>
       <c r="E78">
-        <v>-0.08304700006444721</v>
+        <v>0.006998178477955202</v>
       </c>
       <c r="F78">
-        <v>0.09598549229573754</v>
+        <v>0.02434543539857646</v>
       </c>
       <c r="G78">
-        <v>0.02807078830855994</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.0549118628936034</v>
+      </c>
+      <c r="H78">
+        <v>-0.07894781413225389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.135470627707664</v>
+        <v>0.1334737811135892</v>
       </c>
       <c r="C80">
-        <v>0.6970980456131478</v>
+        <v>0.03448737535763236</v>
       </c>
       <c r="D80">
-        <v>-0.3963532002316262</v>
+        <v>-0.04972101250991214</v>
       </c>
       <c r="E80">
-        <v>-0.528359142919901</v>
+        <v>0.9467302824367517</v>
       </c>
       <c r="F80">
-        <v>0.09860047051571334</v>
+        <v>-0.2021221349561221</v>
       </c>
       <c r="G80">
-        <v>-0.1431758473512027</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1377048401654226</v>
+      </c>
+      <c r="H80">
+        <v>-0.01828361886675095</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1742508197369905</v>
+        <v>0.1493555841698696</v>
       </c>
       <c r="C81">
-        <v>-0.09764728587647369</v>
+        <v>0.06550854592311479</v>
       </c>
       <c r="D81">
-        <v>-0.05255565308241502</v>
+        <v>-0.1015824650877289</v>
       </c>
       <c r="E81">
-        <v>-0.06624034057149585</v>
+        <v>0.01178304805791418</v>
       </c>
       <c r="F81">
-        <v>-0.1229068634461363</v>
+        <v>0.08190205957488977</v>
       </c>
       <c r="G81">
-        <v>-0.02394461660477248</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.07640601629007708</v>
+      </c>
+      <c r="H81">
+        <v>0.09002407567616011</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.04059542775287878</v>
+        <v>0.02882748028832821</v>
       </c>
       <c r="C83">
-        <v>-0.007881706685607908</v>
+        <v>0.004668573083141886</v>
       </c>
       <c r="D83">
-        <v>0.0414333647624778</v>
+        <v>-0.02169367908554781</v>
       </c>
       <c r="E83">
-        <v>-0.009298550665310247</v>
+        <v>-0.006396157765248034</v>
       </c>
       <c r="F83">
-        <v>0.04507843071023038</v>
+        <v>0.004969171101787865</v>
       </c>
       <c r="G83">
-        <v>0.04834011151093607</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03469227772793956</v>
+      </c>
+      <c r="H83">
+        <v>-0.03817484591780616</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2576224846141259</v>
+        <v>0.2176144419139919</v>
       </c>
       <c r="C85">
-        <v>-0.1167440311914067</v>
+        <v>0.08548089337337456</v>
       </c>
       <c r="D85">
-        <v>-0.05771091399975953</v>
+        <v>-0.1714885813716435</v>
       </c>
       <c r="E85">
-        <v>-0.09320706798115952</v>
+        <v>-0.0005226837905316767</v>
       </c>
       <c r="F85">
-        <v>-0.10374251580042</v>
+        <v>0.1201217572934893</v>
       </c>
       <c r="G85">
-        <v>0.03604685178592309</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1336554997071608</v>
+      </c>
+      <c r="H85">
+        <v>0.09607603290030439</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.005892004782387441</v>
+        <v>0.02036251078670698</v>
       </c>
       <c r="C86">
-        <v>0.006254573827620404</v>
+        <v>-0.0009143864940181683</v>
       </c>
       <c r="D86">
-        <v>0.02821109666964934</v>
+        <v>-0.008247423391020126</v>
       </c>
       <c r="E86">
-        <v>-0.04579580863632331</v>
+        <v>-0.008741626729133724</v>
       </c>
       <c r="F86">
-        <v>0.07048672242839696</v>
+        <v>-0.01734940860388145</v>
       </c>
       <c r="G86">
-        <v>0.02569309139477467</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.05634851009067484</v>
+      </c>
+      <c r="H86">
+        <v>-0.08460786977964668</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.0399106103357491</v>
+        <v>0.02668743114332956</v>
       </c>
       <c r="C87">
-        <v>0.01105903711807208</v>
+        <v>0.001818775571214703</v>
       </c>
       <c r="D87">
-        <v>0.006186479616706242</v>
+        <v>-0.03520261050703564</v>
       </c>
       <c r="E87">
-        <v>-0.02801446793911673</v>
+        <v>0.009059312847205236</v>
       </c>
       <c r="F87">
-        <v>0.1199452593113384</v>
+        <v>0.0089172323714573</v>
       </c>
       <c r="G87">
-        <v>0.03239225908622656</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07183819882612659</v>
+      </c>
+      <c r="H87">
+        <v>-0.08384355347275561</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.006435009961412417</v>
+        <v>0.03329739735328035</v>
       </c>
       <c r="C88">
-        <v>-0.004117262315513963</v>
+        <v>-0.01227687101729055</v>
       </c>
       <c r="D88">
-        <v>-0.01286310755196552</v>
+        <v>-0.00644464668138755</v>
       </c>
       <c r="E88">
-        <v>-0.007982634846381132</v>
+        <v>0.007952293162572757</v>
       </c>
       <c r="F88">
-        <v>-0.006076636621099156</v>
+        <v>0.008651299772621988</v>
       </c>
       <c r="G88">
-        <v>0.05566899504093702</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.00837355016019814</v>
+      </c>
+      <c r="H88">
+        <v>-0.01170562653666317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09020421536654921</v>
+        <v>0.2569428524345813</v>
       </c>
       <c r="C89">
-        <v>0.06465886146164136</v>
+        <v>0.03757374009703036</v>
       </c>
       <c r="D89">
-        <v>-0.1848098602428415</v>
+        <v>0.3483889477492198</v>
       </c>
       <c r="E89">
-        <v>0.2548213665078254</v>
+        <v>-0.03385928732771502</v>
       </c>
       <c r="F89">
-        <v>0.1070407318629211</v>
+        <v>-0.05414084151396049</v>
       </c>
       <c r="G89">
-        <v>0.04801156446070727</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.01991944222525896</v>
+      </c>
+      <c r="H89">
+        <v>-7.926491099057553e-05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08028013004825302</v>
+        <v>0.205382137491274</v>
       </c>
       <c r="C90">
-        <v>0.1002002496057199</v>
+        <v>0.03003206867760563</v>
       </c>
       <c r="D90">
-        <v>-0.2317533533920744</v>
+        <v>0.3096404730051255</v>
       </c>
       <c r="E90">
-        <v>0.2545635339238408</v>
+        <v>-0.02642460598528913</v>
       </c>
       <c r="F90">
-        <v>0.0570973954632747</v>
+        <v>-0.07506962911219373</v>
       </c>
       <c r="G90">
-        <v>0.05684439838977114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02561734554282032</v>
+      </c>
+      <c r="H90">
+        <v>0.06526926789117389</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3201364992667769</v>
+        <v>0.2331158602860887</v>
       </c>
       <c r="C91">
-        <v>-0.1378873125791376</v>
+        <v>0.1020852396023335</v>
       </c>
       <c r="D91">
-        <v>-0.05166788225678421</v>
+        <v>-0.1601187418072351</v>
       </c>
       <c r="E91">
-        <v>-0.08149632460747377</v>
+        <v>-0.003358154896216191</v>
       </c>
       <c r="F91">
-        <v>-0.2200925330768749</v>
+        <v>0.1256566072525853</v>
       </c>
       <c r="G91">
-        <v>-0.02781858536676074</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1412740553294037</v>
+      </c>
+      <c r="H91">
+        <v>0.1737933976218115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1700510139686252</v>
+        <v>0.2523598148619109</v>
       </c>
       <c r="C92">
-        <v>0.02420773512359932</v>
+        <v>0.09470910473166877</v>
       </c>
       <c r="D92">
-        <v>-0.3575686580250302</v>
+        <v>0.2320809932235228</v>
       </c>
       <c r="E92">
-        <v>0.2741579500478805</v>
+        <v>-0.01066240839096567</v>
       </c>
       <c r="F92">
-        <v>-0.1090534262683849</v>
+        <v>-0.002497737142392551</v>
       </c>
       <c r="G92">
-        <v>0.4447695226954063</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.01019601226888166</v>
+      </c>
+      <c r="H92">
+        <v>0.1499876296795467</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.0870406121130078</v>
+        <v>0.2298711960546253</v>
       </c>
       <c r="C93">
-        <v>0.1039529750030423</v>
+        <v>0.04205568377746011</v>
       </c>
       <c r="D93">
-        <v>-0.2688105616650041</v>
+        <v>0.3276506643555663</v>
       </c>
       <c r="E93">
-        <v>0.3662410578211017</v>
+        <v>-0.04794486740113247</v>
       </c>
       <c r="F93">
-        <v>0.01225453471526274</v>
+        <v>-0.0814772061771689</v>
       </c>
       <c r="G93">
-        <v>-0.02998493213828515</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.0224842761695827</v>
+      </c>
+      <c r="H93">
+        <v>0.008550117249054207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3099902728845566</v>
+        <v>0.2573611908262002</v>
       </c>
       <c r="C94">
-        <v>-0.1959961302510928</v>
+        <v>0.09254502717860788</v>
       </c>
       <c r="D94">
-        <v>-0.1012314555541031</v>
+        <v>-0.1565057764405428</v>
       </c>
       <c r="E94">
-        <v>-0.1051910351359006</v>
+        <v>-0.01583713137579641</v>
       </c>
       <c r="F94">
-        <v>-0.1994156557033459</v>
+        <v>0.1698158313818112</v>
       </c>
       <c r="G94">
-        <v>-0.06659700302397634</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1230108862534276</v>
+      </c>
+      <c r="H94">
+        <v>0.2072652539672141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06674606801272602</v>
+        <v>0.05196672489598848</v>
       </c>
       <c r="C95">
-        <v>-0.04273246023769809</v>
+        <v>0.02861735265246413</v>
       </c>
       <c r="D95">
-        <v>0.09624603646241241</v>
+        <v>-0.0867283946000152</v>
       </c>
       <c r="E95">
-        <v>-0.05983005486475917</v>
+        <v>-0.08152281425394113</v>
       </c>
       <c r="F95">
-        <v>0.007521670190931059</v>
+        <v>0.001900546708677497</v>
       </c>
       <c r="G95">
-        <v>0.1842056720664945</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.02733050514520378</v>
+      </c>
+      <c r="H95">
+        <v>-0.05079313403917626</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1775092305746908</v>
+        <v>0.1771178332660151</v>
       </c>
       <c r="C98">
-        <v>-6.663063030183193e-05</v>
+        <v>0.06615787229109769</v>
       </c>
       <c r="D98">
-        <v>0.03470557068852698</v>
+        <v>-0.04954036823744234</v>
       </c>
       <c r="E98">
-        <v>0.1095326752258395</v>
+        <v>-0.04474697851793716</v>
       </c>
       <c r="F98">
-        <v>0.140057872915524</v>
+        <v>0.007931169149438247</v>
       </c>
       <c r="G98">
-        <v>-0.3810359105786347</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.05534159500654134</v>
+      </c>
+      <c r="H98">
+        <v>-0.3742711127678626</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007511578433603251</v>
+        <v>0.01490838719572429</v>
       </c>
       <c r="C101">
-        <v>-0.02020678998295606</v>
+        <v>-0.0009913964753255698</v>
       </c>
       <c r="D101">
-        <v>0.02148448788825079</v>
+        <v>-0.007517961353858049</v>
       </c>
       <c r="E101">
-        <v>-0.08660136677181267</v>
+        <v>0.003939634214033761</v>
       </c>
       <c r="F101">
-        <v>0.1650953132446857</v>
+        <v>0.01864805490185064</v>
       </c>
       <c r="G101">
-        <v>0.1868623114131293</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1059605881442255</v>
+      </c>
+      <c r="H101">
+        <v>0.01543278904365038</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1140637106375011</v>
+        <v>0.105040933467009</v>
       </c>
       <c r="C102">
-        <v>-0.06094059601422176</v>
+        <v>0.03387347581008453</v>
       </c>
       <c r="D102">
-        <v>-0.007135119544181366</v>
+        <v>-0.08362490017012204</v>
       </c>
       <c r="E102">
-        <v>-0.06212443021254236</v>
+        <v>0.004255408254139092</v>
       </c>
       <c r="F102">
-        <v>-0.1046559062787857</v>
+        <v>0.06196392077657235</v>
       </c>
       <c r="G102">
-        <v>0.00453936713351086</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.0737960484157561</v>
+      </c>
+      <c r="H102">
+        <v>0.0704842707400949</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.0275592921840494</v>
+        <v>0.01870455313925411</v>
       </c>
       <c r="C103">
-        <v>-0.01980617541423756</v>
+        <v>0.007039515492669545</v>
       </c>
       <c r="D103">
-        <v>-0.002461702388110564</v>
+        <v>-0.01738835585221612</v>
       </c>
       <c r="E103">
-        <v>-0.02168729977956084</v>
+        <v>0.01113595826032502</v>
       </c>
       <c r="F103">
-        <v>0.002730755818441483</v>
+        <v>0.01270181380919835</v>
       </c>
       <c r="G103">
-        <v>0.01026956817955962</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0001091126257071573</v>
+      </c>
+      <c r="H103">
+        <v>0.007215341758554058</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2615555570174413</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9484260651413606</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.0245055180612236</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02735448827108364</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.141726400355571</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.01442379350866445</v>
+      </c>
+      <c r="H104">
+        <v>0.04398983876667182</v>
       </c>
     </row>
   </sheetData>
